--- a/acm-standard-applications/acm-foia/src/main/resources/rules/drools-next-possible-queues-rules-foia.xlsx
+++ b/acm-standard-applications/acm-foia/src/main/resources/rules/drools-next-possible-queues-rules-foia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\armedia\foia\src\main\resources\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrijana.maneva\.arkcase\acm\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064CBE59-8CC5-436B-B36A-020B9F117841}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12290" windowHeight="5820" tabRatio="995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B20" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>RuleSet</t>
   </si>
@@ -153,99 +154,48 @@
     <t>Intake</t>
   </si>
   <si>
-    <t>Fulfill,Suspend,Hold,Delete</t>
-  </si>
-  <si>
     <t>Hold Next Queues</t>
   </si>
   <si>
     <t>Hold</t>
   </si>
   <si>
-    <t>Suspend Next Queues</t>
-  </si>
-  <si>
-    <t>Suspend</t>
-  </si>
-  <si>
     <t>Fulfill Next Queues</t>
   </si>
   <si>
     <t>Fulfill</t>
   </si>
   <si>
-    <t>Hold,Approve,Suspend</t>
-  </si>
-  <si>
     <t>Approve – to Release Rules</t>
   </si>
   <si>
     <t>Approve</t>
   </si>
   <si>
-    <t>!litigationFlag &amp;&amp; !"Appeal".equals(requestSubType) &amp;&amp; feeWaiverFlag</t>
-  </si>
-  <si>
-    <t>Release,Hold</t>
-  </si>
-  <si>
     <t>Approve to GC</t>
   </si>
   <si>
-    <t>litigationFlag || "Appeal".equals(requestSubType)</t>
-  </si>
-  <si>
-    <t>General Counsel,Hold</t>
-  </si>
-  <si>
     <t>Approve to Billing</t>
   </si>
   <si>
-    <t>!litigationFlag &amp;&amp; !"Appeal".equals(requestSubType) &amp;&amp; !feeWaiverFlag</t>
-  </si>
-  <si>
-    <t>Billing,Hold</t>
-  </si>
-  <si>
     <t>General Counsel to Billing</t>
   </si>
   <si>
     <t>General Counsel</t>
   </si>
   <si>
-    <t>!feeWaiverFlag</t>
-  </si>
-  <si>
     <t>General Counsel to Release</t>
   </si>
   <si>
-    <t>feeWaiverFlag</t>
-  </si>
-  <si>
-    <t>Billing to Hold</t>
-  </si>
-  <si>
     <t>Billing</t>
   </si>
   <si>
-    <t>!paidFlag</t>
-  </si>
-  <si>
     <t>Billing to Release</t>
   </si>
   <si>
-    <t>paidFlag</t>
-  </si>
-  <si>
     <t>Release</t>
   </si>
   <si>
-    <t>Delete Next Queues</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>Default next queue</t>
   </si>
   <si>
@@ -262,12 +212,90 @@
   </si>
   <si>
     <t>$model.setDefaultReturnQueue($param);</t>
+  </si>
+  <si>
+    <t>Release,Hold,Fulfill</t>
+  </si>
+  <si>
+    <t>General Counsel,Hold,Fulfill</t>
+  </si>
+  <si>
+    <t>Billing,Hold,Fulfill</t>
+  </si>
+  <si>
+    <t>Release,Fulfill</t>
+  </si>
+  <si>
+    <t>Appeal Next Queues</t>
+  </si>
+  <si>
+    <t>Appeal</t>
+  </si>
+  <si>
+    <t>Hold,Approve</t>
+  </si>
+  <si>
+    <t>$model.setDefaultDenyQueue($param);</t>
+  </si>
+  <si>
+    <t>Default deny queue</t>
+  </si>
+  <si>
+    <t>"Approve"</t>
+  </si>
+  <si>
+    <t>Fulfill,Approve</t>
+  </si>
+  <si>
+    <t>Fulfill,Hold,Approve</t>
+  </si>
+  <si>
+    <t>Approve to Release (Deny)</t>
+  </si>
+  <si>
+    <t>Billing to Approve (Deny)</t>
+  </si>
+  <si>
+    <t>Approve,Fulfill</t>
+  </si>
+  <si>
+    <t>Release,Fulfill,Approve</t>
+  </si>
+  <si>
+    <t>Release,Hold,Fulfill,Approve</t>
+  </si>
+  <si>
+    <t>Billing,Hold,Fulfill,Approve</t>
+  </si>
+  <si>
+    <t>General Counsel to Approve (Deny)</t>
+  </si>
+  <si>
+    <t>deniedFlag</t>
+  </si>
+  <si>
+    <t>!deniedFlag &amp;&amp; !litigationFlag &amp;&amp; feeWaiverFlag</t>
+  </si>
+  <si>
+    <t>!deniedFlag &amp;&amp; litigationFlag</t>
+  </si>
+  <si>
+    <t>!deniedFlag &amp;&amp; !litigationFlag &amp;&amp; !feeWaiverFlag</t>
+  </si>
+  <si>
+    <t>!deniedFlag &amp;&amp; !feeWaiverFlag</t>
+  </si>
+  <si>
+    <t>!deniedFlag &amp;&amp; feeWaiverFlag</t>
+  </si>
+  <si>
+    <t>!deniedFlag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -652,7 +680,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -979,29 +1013,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375"/>
-    <col min="2" max="2" width="26.42578125"/>
-    <col min="3" max="3" width="103.5703125"/>
-    <col min="4" max="5" width="71.140625"/>
-    <col min="6" max="6" width="35.7109375"/>
-    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125"/>
-    <col min="9" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="14.7265625"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="98.81640625" customWidth="1"/>
+    <col min="4" max="5" width="71.1796875"/>
+    <col min="6" max="6" width="35.7265625"/>
+    <col min="7" max="7" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1011,7 +1044,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1055,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1066,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1077,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1088,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1066,7 +1099,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1078,7 +1111,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1123,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1135,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1147,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1159,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1168,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1177,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
         <v>15</v>
@@ -1161,13 +1194,16 @@
       <c r="G14" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1175,8 +1211,9 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1192,8 +1229,11 @@
       <c r="G17" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1201,8 +1241,9 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C19" s="13" t="s">
         <v>21</v>
       </c>
@@ -1213,13 +1254,16 @@
         <v>23</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
@@ -1236,13 +1280,16 @@
         <v>28</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="19"/>
       <c r="B21" s="19" t="s">
         <v>29</v>
@@ -1252,236 +1299,298 @@
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="21" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="19" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="19"/>
       <c r="B23" s="19" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="19" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="19" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="19" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D26" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="G26" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E28" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="19"/>
       <c r="B29" s="19" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="19" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="19"/>
       <c r="B31" s="19" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="19"/>
       <c r="B32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>63</v>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1501,10 +1610,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1512,7 +1618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
@@ -1520,10 +1626,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.7109375"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
